--- a/DSA Worksheet.xlsx
+++ b/DSA Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Problems </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>The second approach was something new for me.I learnt about the two pointer method.In this I initiallized two pointers at far ends of the array.Now as per the formula of area the number which is minimum between the two pointer affects the area directly.So If a &lt;b the we move a to the left and if b&lt;a then we move b to the right.we do this and calculate areas till ai &lt;bi.</t>
+  </si>
+  <si>
+    <t>Prime Numbers</t>
   </si>
 </sst>
 </file>
@@ -92,11 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,6 +456,14 @@
     <row r="6" spans="1:5">
       <c r="E6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
